--- a/biology/Botanique/Satakentia_liukiuensis/Satakentia_liukiuensis.xlsx
+++ b/biology/Botanique/Satakentia_liukiuensis/Satakentia_liukiuensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Satakentia est un genre de la famille des Arecaceae (Palmiers) comprenant une seule espèce, Satakentia liukiuensis, originaire des îles Ryūkyū, un archipel japonais entre les îles de Kyūshū au nord et Taïwan au sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sous-famille des Arecoideae
 Tribu des Areceae
